--- a/medicine/Enfance/Noh_In-Kyung/Noh_In-Kyung.xlsx
+++ b/medicine/Enfance/Noh_In-Kyung/Noh_In-Kyung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Noh In-Kyung, née à Séoul le 2 février 1980, est une autrice-illustratrice sud-coréenne de livres pour la jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Noh In-Kyung a créé son premier album Le train et le poisson (original : gichawa mulgogi) en 2006. Elle a été sélectionnée pour l’« Illustrateur de l’année » à la foire du livre de jeunesse de Bologne 2012[1], pour son œuvre de fin d’études à l’Université Hongik, Soso, l’effaceur (original : chaekcheongsobu soso).
-En 2013, Monsieur Papa et les 100 gouttes d’eau (original : kokkiri ajeossiwa 100gaeui mulbangul) a remporté la Pomme d'Or de Bratislava à la Biennale d'illustration de Bratislava[2],[3] et le Prix P'tits Mômes 2015[4] en Suisse.
-Hérisson X (original : goseumdochi X) a fait partie de la sélection White Ravens 2015[5] et Le souffle (original : sum) a été retenu pour pour Silent Books 2019 de l’Union internationale du livre de jeunesse[6],[7] (IBBY). Publié en France et à Taïwan, Monsieur Ours veut qu’on le laisse tranquille[8] rencontre des lecteurs francophones et sinophones. Seuls deux de ses ouvrages ont été traduits en français, aux éditions Rue du monde.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noh In-Kyung a créé son premier album Le train et le poisson (original : gichawa mulgogi) en 2006. Elle a été sélectionnée pour l’« Illustrateur de l’année » à la foire du livre de jeunesse de Bologne 2012, pour son œuvre de fin d’études à l’Université Hongik, Soso, l’effaceur (original : chaekcheongsobu soso).
+En 2013, Monsieur Papa et les 100 gouttes d’eau (original : kokkiri ajeossiwa 100gaeui mulbangul) a remporté la Pomme d'Or de Bratislava à la Biennale d'illustration de Bratislava, et le Prix P'tits Mômes 2015 en Suisse.
+Hérisson X (original : goseumdochi X) a fait partie de la sélection White Ravens 2015 et Le souffle (original : sum) a été retenu pour pour Silent Books 2019 de l’Union internationale du livre de jeunesse, (IBBY). Publié en France et à Taïwan, Monsieur Ours veut qu’on le laisse tranquille rencontre des lecteurs francophones et sinophones. Seuls deux de ses ouvrages ont été traduits en français, aux éditions Rue du monde.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Je ne bois pas de lait (original : uyuneun an masyeo), Munhakdongne (Corée du Sud), 2022,  (ISBN 9788954689335)
 C’est à moi, tout est à moi (original : nae geoya da nae geoya), Munhakdongne (Corée du Sud), 2022,  (ISBN 9788954689342)
@@ -563,12 +579,9 @@
 Monsieur Papa et les 100 gouttes d’eau (original : kokkiri ajeossiwa 100gaeui mulbangul), Munhakdongne (Corée du Sud), 2012,  (ISBN 978-89-546-1861-8)
 大象杜笛和100个小水滴, People’s education press (Chine), 2014,  (ISBN 9787107294013)
 Mr Tutti y las 100 gotas de agua, Barbara fiore edition (Espagne), 2015,  (ISBN 9788415208655)
-العم فيفو والـ 100 قطرة, AlFulk Translation and Publishing, (Émirats arabes unis), 2017,  (ISBN 9789948234357)[9]
+العم فيفو والـ 100 قطرة, AlFulk Translation and Publishing, (Émirats arabes unis), 2017,  (ISBN 9789948234357)
 Soso, l’effaceur (original : chaekcheongsobu soso), Munhakdongne (Corée du Sud), 2010,  (ISBN 978-89-546-1352-1)
-Le train et le poisson (original : gichawa mulgogi), Munhakdongne (Corée du Sud), 2006,  (ISBN 89-546-0114-6)
-Publications en traductions françaises
-Monsieur Papa et les 100 gouttes d'eau, texte adapté du coréen par Alain Serres, Rue du monde (France), 2014  (ISBN 9782355043284)
-Monsieur Ours veut qu’on le laisse tranquille[8], texte adapté du coréen par Laurana Serres-Giardi, Rue du monde (France), 2017  (ISBN 9782355044601)</t>
+Le train et le poisson (original : gichawa mulgogi), Munhakdongne (Corée du Sud), 2006,  (ISBN 89-546-0114-6)</t>
         </is>
       </c>
     </row>
@@ -593,16 +606,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications en traductions françaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Monsieur Papa et les 100 gouttes d'eau, texte adapté du coréen par Alain Serres, Rue du monde (France), 2014  (ISBN 9782355043284)
+Monsieur Ours veut qu’on le laisse tranquille, texte adapté du coréen par Laurana Serres-Giardi, Rue du monde (France), 2017  (ISBN 9782355044601)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Noh_In-Kyung</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Noh_In-Kyung</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2012 : Sélection « Illustrateur de l’année » à la foire du livre de jeunesse de Bologne[réf. nécessaire], pour son album Soso, l’effaceur (original : chaekcheongsobu soso)
-2013 : Pomme d'Or de Bratislava à la Biennale d'illustration de Bratislava[10],[3], pour Monsieur Papa et les 100 gouttes d’eau (original : kokkiri ajeossiwa 100 gaeui mulbangul)
-2015 : Prix P'tits Mômes[4] pour Monsieur Papa et les 100 gouttes d’eau
-2015 : Sélection White Ravens[5], pour son livre Hérisson X (original : goseumdochi X)
-2019 : Sélection Silent Books[11],[7] de l’Union Internationale du livre de jeunesse (IBBY), pour Le souffle (original : sum).</t>
+2013 : Pomme d'Or de Bratislava à la Biennale d'illustration de Bratislava pour Monsieur Papa et les 100 gouttes d’eau (original : kokkiri ajeossiwa 100 gaeui mulbangul)
+2015 : Prix P'tits Mômes pour Monsieur Papa et les 100 gouttes d’eau
+2015 : Sélection White Ravens, pour son livre Hérisson X (original : goseumdochi X)
+2019 : Sélection Silent Books, de l’Union Internationale du livre de jeunesse (IBBY), pour Le souffle (original : sum).</t>
         </is>
       </c>
     </row>
